--- a/biology/Médecine/Narine/Narine.xlsx
+++ b/biology/Médecine/Narine/Narine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La narine est l'orifice externe de l'organe olfactif de nombreux animaux, et la voie naturelle de l'air inspiré ; il est réchauffé par l'air expiré, ou rafraichi dans les régions très chaudes (dans tous les cas, la zone nasale se comporte comme un échangeur thermique). Chez l'Homme, elle constitue une partie de l'aile du nez et contient un muscle plus ou moins tonique selon les personnes et leur âge.[réf. nécessaire]
 </t>
@@ -511,10 +523,12 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les narines sont des éléments actifs pour plusieurs systèmes fonctionnels et anatomiques :
-odorat (il semble possible que le cerveau de nombreux mammifères, y compris humain, puisse différencier des entrées olfactives différentes dans chacune des deux narines, permettant, comme dans le cas de la rivalité binoculaire une sorte de perception spatiale du monde des odeurs[1].
+odorat (il semble possible que le cerveau de nombreux mammifères, y compris humain, puisse différencier des entrées olfactives différentes dans chacune des deux narines, permettant, comme dans le cas de la rivalité binoculaire une sorte de perception spatiale du monde des odeurs.
 filtration de l'air inhalé, grâce à une pilosité interne et au mucus sécrété par des glandes permettant d'emprisonner certains corps étrangers (qui peuvent être expulsés par un éternuement réflexe).
 régulation thermo-hygrométrique de l'air, jouant un véritable rôle d'échangeur thermique et participant même à la thermorégulation du cerveau, y compris chez l'homme.
 Les narines apparaissent d'une couleur plus froide sur les photographies prises dans l'infra-rouge.
@@ -550,7 +564,9 @@
           <t>Anatomie et position anatomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les narines sont des éléments de chair, qui s'appuient sur les cartilages alaires (ailes du nez). Elles contiennent des tissus musculaires permettant de les dilater ou de les fermer (plus ou moins selon les espèces).
 On parle de « narine osseuse » pour désigner le trou qui dans le squelette correspond à la narine externe.
@@ -584,7 +600,9 @@
           <t>Chez les primates</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le caractère « narines » présente 3 états :
 narines avec un rhinarium. C'est le cas des strepsirhiniens ;
@@ -618,9 +636,11 @@
           <t>Chez l'Humain</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les narines (aussi dénommées « trou de nez » en langage familier) sont plus ou moins larges ou épaisses, la plus étroite chez les populations de peau blanche et la plus large chez les aborigènes australiens. Elle a souvent été – et l'est à nouveau – avec la mode du piercing, percée ou ornée de bijoux, os, tatouage... Les malformations congénitales des narines sont exceptionnelles (parfois associées à un syndrome de Hadju-Cheney[2]). Une absence de narine (double ou partielle) est dite arhinie congénitale[3],[4] (simple ou double), c'est une malformation très rare (dans ce cas le nez entier peut être absent[5], forçant le bébé à respirer par la bouche, ce qui le met en détresse respiratoire durant la tétée)[6]. Les narines sont parfois le siège de tumeurs et de cancers de la peau. Le mouchage s'exécute en exerçant une pression sur les narines.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les narines (aussi dénommées « trou de nez » en langage familier) sont plus ou moins larges ou épaisses, la plus étroite chez les populations de peau blanche et la plus large chez les aborigènes australiens. Elle a souvent été – et l'est à nouveau – avec la mode du piercing, percée ou ornée de bijoux, os, tatouage... Les malformations congénitales des narines sont exceptionnelles (parfois associées à un syndrome de Hadju-Cheney). Une absence de narine (double ou partielle) est dite arhinie congénitale, (simple ou double), c'est une malformation très rare (dans ce cas le nez entier peut être absent, forçant le bébé à respirer par la bouche, ce qui le met en détresse respiratoire durant la tétée). Les narines sont parfois le siège de tumeurs et de cancers de la peau. Le mouchage s'exécute en exerçant une pression sur les narines.
 Des subtils mouvements et frémissements des narines (permis par un muscle dénommé Dilator naris jouent un rôle dans la communication non verbale.
 Certains peuples (Inuits) se frottent les narines pour se saluer.
 </t>
@@ -651,7 +671,9 @@
           <t>Chez les autres animaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les Poissons, une narine externe met en contact le sac olfactif avec l'extérieur.
 Chez les Tétrapodes, il existe en plus la choane, ou narine interne, en contact avec le pharynx, qui est l'orifice postérieur des fosses nasales qui met ces dernières en communication avec les poumons, conférant à l'organe olfactif une fonction respiratoire.
@@ -683,7 +705,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de rhume, grippe, etc. les narines peuvent être irritées ou présenter des symptômes d'inflammation.
 Des symptômes proches sont possibles en présence d'air déshydraté et/ou pollué.
